--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.777907</v>
+        <v>0.5429463333333333</v>
       </c>
       <c r="H2">
-        <v>2.333721</v>
+        <v>1.628839</v>
       </c>
       <c r="I2">
-        <v>0.06867740520458042</v>
+        <v>0.04659251079363984</v>
       </c>
       <c r="J2">
-        <v>0.06867740520458043</v>
+        <v>0.04659251079363985</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N2">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O2">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P2">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q2">
-        <v>3.021836788013334</v>
+        <v>2.648359554112555</v>
       </c>
       <c r="R2">
-        <v>27.19653109212</v>
+        <v>23.835235987013</v>
       </c>
       <c r="S2">
-        <v>0.006490639664859171</v>
+        <v>0.00464115787155528</v>
       </c>
       <c r="T2">
-        <v>0.006490639664859172</v>
+        <v>0.004641157871555281</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.777907</v>
+        <v>0.5429463333333333</v>
       </c>
       <c r="H3">
-        <v>2.333721</v>
+        <v>1.628839</v>
       </c>
       <c r="I3">
-        <v>0.06867740520458042</v>
+        <v>0.04659251079363984</v>
       </c>
       <c r="J3">
-        <v>0.06867740520458043</v>
+        <v>0.04659251079363985</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>19.988727</v>
       </c>
       <c r="O3">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P3">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q3">
-        <v>5.183123551463</v>
+        <v>3.617602010883667</v>
       </c>
       <c r="R3">
-        <v>46.648111963167</v>
+        <v>32.558418097953</v>
       </c>
       <c r="S3">
-        <v>0.0111328935581292</v>
+        <v>0.006339721516625069</v>
       </c>
       <c r="T3">
-        <v>0.01113289355812921</v>
+        <v>0.00633972151662507</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.777907</v>
+        <v>0.5429463333333333</v>
       </c>
       <c r="H4">
-        <v>2.333721</v>
+        <v>1.628839</v>
       </c>
       <c r="I4">
-        <v>0.06867740520458042</v>
+        <v>0.04659251079363984</v>
       </c>
       <c r="J4">
-        <v>0.06867740520458043</v>
+        <v>0.04659251079363985</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N4">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O4">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P4">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q4">
-        <v>0.03826783835333333</v>
+        <v>0.133814010367</v>
       </c>
       <c r="R4">
-        <v>0.34441054518</v>
+        <v>1.204326093303</v>
       </c>
       <c r="S4">
-        <v>8.219595131339318E-05</v>
+        <v>0.0002345043921905428</v>
       </c>
       <c r="T4">
-        <v>8.219595131339319E-05</v>
+        <v>0.0002345043921905429</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.777907</v>
+        <v>0.5429463333333333</v>
       </c>
       <c r="H5">
-        <v>2.333721</v>
+        <v>1.628839</v>
       </c>
       <c r="I5">
-        <v>0.06867740520458042</v>
+        <v>0.04659251079363984</v>
       </c>
       <c r="J5">
-        <v>0.06867740520458043</v>
+        <v>0.04659251079363985</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N5">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O5">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P5">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q5">
-        <v>23.647962065104</v>
+        <v>20.09624348277955</v>
       </c>
       <c r="R5">
-        <v>212.831658585936</v>
+        <v>180.866191345016</v>
       </c>
       <c r="S5">
-        <v>0.05079374279302466</v>
+        <v>0.03521796671602162</v>
       </c>
       <c r="T5">
-        <v>0.05079374279302467</v>
+        <v>0.03521796671602163</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.777907</v>
+        <v>0.5429463333333333</v>
       </c>
       <c r="H6">
-        <v>2.333721</v>
+        <v>1.628839</v>
       </c>
       <c r="I6">
-        <v>0.06867740520458042</v>
+        <v>0.04659251079363984</v>
       </c>
       <c r="J6">
-        <v>0.06867740520458043</v>
+        <v>0.04659251079363985</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N6">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O6">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P6">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q6">
-        <v>0.082840094337</v>
+        <v>0.090820804962</v>
       </c>
       <c r="R6">
-        <v>0.745560849033</v>
+        <v>0.8173872446579999</v>
       </c>
       <c r="S6">
-        <v>0.0001779332372539888</v>
+        <v>0.0001591602972473347</v>
       </c>
       <c r="T6">
-        <v>0.0001779332372539888</v>
+        <v>0.0001591602972473348</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>30.967833</v>
       </c>
       <c r="I7">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024722</v>
       </c>
       <c r="J7">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024723</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N7">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O7">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P7">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q7">
-        <v>40.09893942097334</v>
+        <v>50.35117430004566</v>
       </c>
       <c r="R7">
-        <v>360.89045478876</v>
+        <v>453.160568700411</v>
       </c>
       <c r="S7">
-        <v>0.08612899537028411</v>
+        <v>0.08823867914076183</v>
       </c>
       <c r="T7">
-        <v>0.08612899537028411</v>
+        <v>0.08823867914076186</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>30.967833</v>
       </c>
       <c r="I8">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024722</v>
       </c>
       <c r="J8">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024723</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>19.988727</v>
       </c>
       <c r="O8">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P8">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q8">
         <v>68.778617735399</v>
@@ -948,10 +948,10 @@
         <v>619.007559618591</v>
       </c>
       <c r="S8">
-        <v>0.1477304221519715</v>
+        <v>0.1205321319009134</v>
       </c>
       <c r="T8">
-        <v>0.1477304221519715</v>
+        <v>0.1205321319009134</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>30.967833</v>
       </c>
       <c r="I9">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024722</v>
       </c>
       <c r="J9">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024723</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N9">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O9">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P9">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q9">
-        <v>0.5078036437933333</v>
+        <v>2.544100384449</v>
       </c>
       <c r="R9">
-        <v>4.57023279414</v>
+        <v>22.896903460041</v>
       </c>
       <c r="S9">
-        <v>0.00109071756801661</v>
+        <v>0.004458447308250377</v>
       </c>
       <c r="T9">
-        <v>0.00109071756801661</v>
+        <v>0.004458447308250377</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>30.967833</v>
       </c>
       <c r="I10">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024722</v>
       </c>
       <c r="J10">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024723</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N10">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O10">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P10">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q10">
-        <v>313.801924061392</v>
+        <v>382.0740491245947</v>
       </c>
       <c r="R10">
-        <v>2824.217316552528</v>
+        <v>3438.666442121352</v>
       </c>
       <c r="S10">
-        <v>0.6740189355365707</v>
+        <v>0.6695714627788971</v>
       </c>
       <c r="T10">
-        <v>0.6740189355365707</v>
+        <v>0.6695714627788972</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>30.967833</v>
       </c>
       <c r="I11">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024722</v>
       </c>
       <c r="J11">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024723</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N11">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O11">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P11">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q11">
-        <v>1.099265168001</v>
+        <v>1.726704432414</v>
       </c>
       <c r="R11">
-        <v>9.893386512009</v>
+        <v>15.540339891726</v>
       </c>
       <c r="S11">
-        <v>0.002361124905861028</v>
+        <v>0.003025989373649466</v>
       </c>
       <c r="T11">
-        <v>0.002361124905861028</v>
+        <v>0.003025989373649466</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2264533333333334</v>
+        <v>0.7875243333333334</v>
       </c>
       <c r="H12">
-        <v>0.6793600000000001</v>
+        <v>2.362573</v>
       </c>
       <c r="I12">
-        <v>0.01999239926271553</v>
+        <v>0.06758077870388791</v>
       </c>
       <c r="J12">
-        <v>0.01999239926271554</v>
+        <v>0.06758077870388793</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N12">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O12">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P12">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q12">
-        <v>0.8796745799111113</v>
+        <v>3.841351279554555</v>
       </c>
       <c r="R12">
-        <v>7.9170712192</v>
+        <v>34.57216151599101</v>
       </c>
       <c r="S12">
-        <v>0.001889463634564169</v>
+        <v>0.006731834316389756</v>
       </c>
       <c r="T12">
-        <v>0.001889463634564169</v>
+        <v>0.006731834316389759</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2264533333333334</v>
+        <v>0.7875243333333334</v>
       </c>
       <c r="H13">
-        <v>0.6793600000000001</v>
+        <v>2.362573</v>
       </c>
       <c r="I13">
-        <v>0.01999239926271553</v>
+        <v>0.06758077870388791</v>
       </c>
       <c r="J13">
-        <v>0.01999239926271554</v>
+        <v>0.06758077870388793</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>19.988727</v>
       </c>
       <c r="O13">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P13">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q13">
-        <v>1.508837952746667</v>
+        <v>5.247202968285667</v>
       </c>
       <c r="R13">
-        <v>13.57954157472</v>
+        <v>47.22482671457101</v>
       </c>
       <c r="S13">
-        <v>0.003240851227567758</v>
+        <v>0.009195540432601037</v>
       </c>
       <c r="T13">
-        <v>0.003240851227567759</v>
+        <v>0.00919554043260104</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2264533333333334</v>
+        <v>0.7875243333333334</v>
       </c>
       <c r="H14">
-        <v>0.6793600000000001</v>
+        <v>2.362573</v>
       </c>
       <c r="I14">
-        <v>0.01999239926271553</v>
+        <v>0.06758077870388791</v>
       </c>
       <c r="J14">
-        <v>0.01999239926271554</v>
+        <v>0.06758077870388793</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N14">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O14">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P14">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q14">
-        <v>0.01113999431111111</v>
+        <v>0.194092459669</v>
       </c>
       <c r="R14">
-        <v>0.1002599488</v>
+        <v>1.746832137021</v>
       </c>
       <c r="S14">
-        <v>2.392772807215036E-05</v>
+        <v>0.0003401402749877597</v>
       </c>
       <c r="T14">
-        <v>2.392772807215036E-05</v>
+        <v>0.0003401402749877597</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2264533333333334</v>
+        <v>0.7875243333333334</v>
       </c>
       <c r="H15">
-        <v>0.6793600000000001</v>
+        <v>2.362573</v>
       </c>
       <c r="I15">
-        <v>0.01999239926271553</v>
+        <v>0.06758077870388791</v>
       </c>
       <c r="J15">
-        <v>0.01999239926271554</v>
+        <v>0.06758077870388793</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N15">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O15">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P15">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q15">
-        <v>6.884061765973335</v>
+        <v>29.14888595732356</v>
       </c>
       <c r="R15">
-        <v>61.95655589376001</v>
+        <v>262.339973615912</v>
       </c>
       <c r="S15">
-        <v>0.0147863592536851</v>
+        <v>0.05108240733318109</v>
       </c>
       <c r="T15">
-        <v>0.0147863592536851</v>
+        <v>0.0510824073331811</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2264533333333334</v>
+        <v>0.7875243333333334</v>
       </c>
       <c r="H16">
-        <v>0.6793600000000001</v>
+        <v>2.362573</v>
       </c>
       <c r="I16">
-        <v>0.01999239926271553</v>
+        <v>0.06758077870388791</v>
       </c>
       <c r="J16">
-        <v>0.01999239926271554</v>
+        <v>0.06758077870388793</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N16">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O16">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P16">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q16">
-        <v>0.02411524192000001</v>
+        <v>0.131732345334</v>
       </c>
       <c r="R16">
-        <v>0.21703717728</v>
+        <v>1.185591108006</v>
       </c>
       <c r="S16">
-        <v>5.17974188263592E-05</v>
+        <v>0.0002308563467282693</v>
       </c>
       <c r="T16">
-        <v>5.179741882635921E-05</v>
+        <v>0.0002308563467282693</v>
       </c>
     </row>
   </sheetData>
